--- a/AI_result/5_更新学生信息_responsexlsx.xlsx
+++ b/AI_result/5_更新学生信息_responsexlsx.xlsx
@@ -471,7 +471,7 @@
         <v>200</v>
       </c>
       <c r="D2" t="n">
-        <v>0.043199</v>
+        <v>0.042437</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>

--- a/AI_result/5_更新学生信息_responsexlsx.xlsx
+++ b/AI_result/5_更新学生信息_responsexlsx.xlsx
@@ -471,7 +471,7 @@
         <v>200</v>
       </c>
       <c r="D2" t="n">
-        <v>0.042437</v>
+        <v>0.046674</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>

--- a/AI_result/5_更新学生信息_responsexlsx.xlsx
+++ b/AI_result/5_更新学生信息_responsexlsx.xlsx
@@ -471,7 +471,7 @@
         <v>200</v>
       </c>
       <c r="D2" t="n">
-        <v>0.046674</v>
+        <v>0.04103</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
